--- a/stock_historical_data/1wk/TITAGARH.NS.xlsx
+++ b/stock_historical_data/1wk/TITAGARH.NS.xlsx
@@ -45146,7 +45146,9 @@
       <c r="P843" t="n">
         <v>0</v>
       </c>
-      <c r="Q843" t="inlineStr"/>
+      <c r="Q843" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TITAGARH.NS.xlsx
+++ b/stock_historical_data/1wk/TITAGARH.NS.xlsx
@@ -47733,7 +47733,9 @@
       <c r="Q844" t="n">
         <v>0</v>
       </c>
-      <c r="R844" t="inlineStr"/>
+      <c r="R844" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TITAGARH.NS.xlsx
+++ b/stock_historical_data/1wk/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R844"/>
+  <dimension ref="A1:R846"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47737,6 +47737,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="845">
+      <c r="A845" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B845" t="n">
+        <v>1483.050048828125</v>
+      </c>
+      <c r="C845" t="n">
+        <v>1614</v>
+      </c>
+      <c r="D845" t="n">
+        <v>1425.599975585938</v>
+      </c>
+      <c r="E845" t="n">
+        <v>1582.699951171875</v>
+      </c>
+      <c r="F845" t="n">
+        <v>1582.699951171875</v>
+      </c>
+      <c r="G845" t="n">
+        <v>13410388</v>
+      </c>
+      <c r="H845" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I845" t="n">
+        <v>6</v>
+      </c>
+      <c r="J845" t="n">
+        <v>17</v>
+      </c>
+      <c r="K845" t="n">
+        <v>0</v>
+      </c>
+      <c r="L845" t="n">
+        <v>0</v>
+      </c>
+      <c r="M845" t="n">
+        <v>0</v>
+      </c>
+      <c r="N845" t="n">
+        <v>25</v>
+      </c>
+      <c r="O845" t="n">
+        <v>0</v>
+      </c>
+      <c r="P845" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q845" t="n">
+        <v>0</v>
+      </c>
+      <c r="R845" t="inlineStr"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B846" t="n">
+        <v>1595</v>
+      </c>
+      <c r="C846" t="n">
+        <v>1896.949951171875</v>
+      </c>
+      <c r="D846" t="n">
+        <v>1584.300048828125</v>
+      </c>
+      <c r="E846" t="n">
+        <v>1859.849975585938</v>
+      </c>
+      <c r="F846" t="n">
+        <v>1859.849975585938</v>
+      </c>
+      <c r="G846" t="n">
+        <v>26447317</v>
+      </c>
+      <c r="H846" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I846" t="n">
+        <v>6</v>
+      </c>
+      <c r="J846" t="n">
+        <v>24</v>
+      </c>
+      <c r="K846" t="n">
+        <v>0</v>
+      </c>
+      <c r="L846" t="n">
+        <v>0</v>
+      </c>
+      <c r="M846" t="n">
+        <v>0</v>
+      </c>
+      <c r="N846" t="n">
+        <v>26</v>
+      </c>
+      <c r="O846" t="n">
+        <v>0</v>
+      </c>
+      <c r="P846" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q846" t="n">
+        <v>0</v>
+      </c>
+      <c r="R846" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/TITAGARH.NS.xlsx
+++ b/stock_historical_data/1wk/TITAGARH.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R846"/>
+  <dimension ref="A1:R881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -47669,7 +47669,7 @@
         <v>23</v>
       </c>
       <c r="O843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P843" t="n">
         <v>0</v>
@@ -47789,7 +47789,9 @@
       <c r="Q845" t="n">
         <v>0</v>
       </c>
-      <c r="R845" t="inlineStr"/>
+      <c r="R845" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
@@ -47835,7 +47837,7 @@
         <v>26</v>
       </c>
       <c r="O846" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P846" t="n">
         <v>0</v>
@@ -47843,7 +47845,1829 @@
       <c r="Q846" t="n">
         <v>0</v>
       </c>
-      <c r="R846" t="inlineStr"/>
+      <c r="R846" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B847" t="n">
+        <v>1851.995012934201</v>
+      </c>
+      <c r="C847" t="n">
+        <v>1864.987962296394</v>
+      </c>
+      <c r="D847" t="n">
+        <v>1759.045452112355</v>
+      </c>
+      <c r="E847" t="n">
+        <v>1827.9580078125</v>
+      </c>
+      <c r="F847" t="inlineStr"/>
+      <c r="G847" t="n">
+        <v>6610681</v>
+      </c>
+      <c r="H847" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I847" t="n">
+        <v>7</v>
+      </c>
+      <c r="J847" t="n">
+        <v>1</v>
+      </c>
+      <c r="K847" t="n">
+        <v>0</v>
+      </c>
+      <c r="L847" t="n">
+        <v>0</v>
+      </c>
+      <c r="M847" t="n">
+        <v>0</v>
+      </c>
+      <c r="N847" t="n">
+        <v>27</v>
+      </c>
+      <c r="O847" t="n">
+        <v>0</v>
+      </c>
+      <c r="P847" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q847" t="n">
+        <v>0</v>
+      </c>
+      <c r="R847" t="inlineStr"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B848" t="n">
+        <v>1857.991831179739</v>
+      </c>
+      <c r="C848" t="n">
+        <v>1860.090667911503</v>
+      </c>
+      <c r="D848" t="n">
+        <v>1675.190996707494</v>
+      </c>
+      <c r="E848" t="n">
+        <v>1687.484375</v>
+      </c>
+      <c r="F848" t="inlineStr"/>
+      <c r="G848" t="n">
+        <v>6223149</v>
+      </c>
+      <c r="H848" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I848" t="n">
+        <v>7</v>
+      </c>
+      <c r="J848" t="n">
+        <v>8</v>
+      </c>
+      <c r="K848" t="n">
+        <v>0</v>
+      </c>
+      <c r="L848" t="n">
+        <v>0</v>
+      </c>
+      <c r="M848" t="n">
+        <v>0</v>
+      </c>
+      <c r="N848" t="n">
+        <v>28</v>
+      </c>
+      <c r="O848" t="n">
+        <v>0</v>
+      </c>
+      <c r="P848" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q848" t="n">
+        <v>0</v>
+      </c>
+      <c r="R848" t="inlineStr"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B849" t="n">
+        <v>1694.830371875172</v>
+      </c>
+      <c r="C849" t="n">
+        <v>1749.050951367567</v>
+      </c>
+      <c r="D849" t="n">
+        <v>1574.14585623081</v>
+      </c>
+      <c r="E849" t="n">
+        <v>1654.652221679688</v>
+      </c>
+      <c r="F849" t="inlineStr"/>
+      <c r="G849" t="n">
+        <v>6704218</v>
+      </c>
+      <c r="H849" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I849" t="n">
+        <v>7</v>
+      </c>
+      <c r="J849" t="n">
+        <v>15</v>
+      </c>
+      <c r="K849" t="n">
+        <v>0</v>
+      </c>
+      <c r="L849" t="n">
+        <v>0</v>
+      </c>
+      <c r="M849" t="n">
+        <v>0</v>
+      </c>
+      <c r="N849" t="n">
+        <v>29</v>
+      </c>
+      <c r="O849" t="n">
+        <v>0</v>
+      </c>
+      <c r="P849" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q849" t="n">
+        <v>1</v>
+      </c>
+      <c r="R849" t="inlineStr"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B850" t="n">
+        <v>1619.121366550985</v>
+      </c>
+      <c r="C850" t="n">
+        <v>1654.002462367009</v>
+      </c>
+      <c r="D850" t="n">
+        <v>1458.608494983851</v>
+      </c>
+      <c r="E850" t="n">
+        <v>1610.17626953125</v>
+      </c>
+      <c r="F850" t="inlineStr"/>
+      <c r="G850" t="n">
+        <v>6087183</v>
+      </c>
+      <c r="H850" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I850" t="n">
+        <v>7</v>
+      </c>
+      <c r="J850" t="n">
+        <v>22</v>
+      </c>
+      <c r="K850" t="n">
+        <v>0</v>
+      </c>
+      <c r="L850" t="n">
+        <v>0</v>
+      </c>
+      <c r="M850" t="n">
+        <v>0</v>
+      </c>
+      <c r="N850" t="n">
+        <v>30</v>
+      </c>
+      <c r="O850" t="n">
+        <v>0</v>
+      </c>
+      <c r="P850" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q850" t="n">
+        <v>0</v>
+      </c>
+      <c r="R850" t="inlineStr"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B851" t="n">
+        <v>1624.018768603734</v>
+      </c>
+      <c r="C851" t="n">
+        <v>1706.773789265508</v>
+      </c>
+      <c r="D851" t="n">
+        <v>1493.189737115608</v>
+      </c>
+      <c r="E851" t="n">
+        <v>1497.537353515625</v>
+      </c>
+      <c r="F851" t="inlineStr"/>
+      <c r="G851" t="n">
+        <v>9450238</v>
+      </c>
+      <c r="H851" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I851" t="n">
+        <v>7</v>
+      </c>
+      <c r="J851" t="n">
+        <v>29</v>
+      </c>
+      <c r="K851" t="n">
+        <v>0</v>
+      </c>
+      <c r="L851" t="n">
+        <v>0</v>
+      </c>
+      <c r="M851" t="n">
+        <v>0</v>
+      </c>
+      <c r="N851" t="n">
+        <v>31</v>
+      </c>
+      <c r="O851" t="n">
+        <v>0</v>
+      </c>
+      <c r="P851" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q851" t="n">
+        <v>0</v>
+      </c>
+      <c r="R851" t="inlineStr"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B852" t="n">
+        <v>1439.219039602482</v>
+      </c>
+      <c r="C852" t="n">
+        <v>1523.923076829086</v>
+      </c>
+      <c r="D852" t="n">
+        <v>1335.72514944609</v>
+      </c>
+      <c r="E852" t="n">
+        <v>1347.968505859375</v>
+      </c>
+      <c r="F852" t="inlineStr"/>
+      <c r="G852" t="n">
+        <v>8215324</v>
+      </c>
+      <c r="H852" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I852" t="n">
+        <v>8</v>
+      </c>
+      <c r="J852" t="n">
+        <v>5</v>
+      </c>
+      <c r="K852" t="n">
+        <v>0</v>
+      </c>
+      <c r="L852" t="n">
+        <v>0</v>
+      </c>
+      <c r="M852" t="n">
+        <v>0</v>
+      </c>
+      <c r="N852" t="n">
+        <v>32</v>
+      </c>
+      <c r="O852" t="n">
+        <v>0</v>
+      </c>
+      <c r="P852" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q852" t="n">
+        <v>2</v>
+      </c>
+      <c r="R852" t="inlineStr"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B853" t="n">
+        <v>1339.273283462842</v>
+      </c>
+      <c r="C853" t="n">
+        <v>1464.205492741092</v>
+      </c>
+      <c r="D853" t="n">
+        <v>1314.73654875895</v>
+      </c>
+      <c r="E853" t="n">
+        <v>1427.175537109375</v>
+      </c>
+      <c r="F853" t="inlineStr"/>
+      <c r="G853" t="n">
+        <v>7550134</v>
+      </c>
+      <c r="H853" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I853" t="n">
+        <v>8</v>
+      </c>
+      <c r="J853" t="n">
+        <v>12</v>
+      </c>
+      <c r="K853" t="n">
+        <v>0</v>
+      </c>
+      <c r="L853" t="n">
+        <v>0</v>
+      </c>
+      <c r="M853" t="n">
+        <v>0</v>
+      </c>
+      <c r="N853" t="n">
+        <v>33</v>
+      </c>
+      <c r="O853" t="n">
+        <v>0</v>
+      </c>
+      <c r="P853" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q853" t="n">
+        <v>0</v>
+      </c>
+      <c r="R853" t="inlineStr"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B854" t="n">
+        <v>1449.31356548432</v>
+      </c>
+      <c r="C854" t="n">
+        <v>1487.892607747567</v>
+      </c>
+      <c r="D854" t="n">
+        <v>1402.788883422217</v>
+      </c>
+      <c r="E854" t="n">
+        <v>1415.282104492188</v>
+      </c>
+      <c r="F854" t="inlineStr"/>
+      <c r="G854" t="n">
+        <v>3404137</v>
+      </c>
+      <c r="H854" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I854" t="n">
+        <v>8</v>
+      </c>
+      <c r="J854" t="n">
+        <v>19</v>
+      </c>
+      <c r="K854" t="n">
+        <v>0</v>
+      </c>
+      <c r="L854" t="n">
+        <v>0</v>
+      </c>
+      <c r="M854" t="n">
+        <v>0</v>
+      </c>
+      <c r="N854" t="n">
+        <v>34</v>
+      </c>
+      <c r="O854" t="n">
+        <v>0</v>
+      </c>
+      <c r="P854" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q854" t="n">
+        <v>0</v>
+      </c>
+      <c r="R854" t="inlineStr"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B855" t="n">
+        <v>1420</v>
+      </c>
+      <c r="C855" t="n">
+        <v>1509.800048828125</v>
+      </c>
+      <c r="D855" t="n">
+        <v>1390</v>
+      </c>
+      <c r="E855" t="n">
+        <v>1423.800048828125</v>
+      </c>
+      <c r="F855" t="inlineStr"/>
+      <c r="G855" t="n">
+        <v>5850905</v>
+      </c>
+      <c r="H855" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I855" t="n">
+        <v>8</v>
+      </c>
+      <c r="J855" t="n">
+        <v>26</v>
+      </c>
+      <c r="K855" t="n">
+        <v>0</v>
+      </c>
+      <c r="L855" t="n">
+        <v>0</v>
+      </c>
+      <c r="M855" t="n">
+        <v>0</v>
+      </c>
+      <c r="N855" t="n">
+        <v>35</v>
+      </c>
+      <c r="O855" t="n">
+        <v>0</v>
+      </c>
+      <c r="P855" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q855" t="n">
+        <v>0</v>
+      </c>
+      <c r="R855" t="inlineStr"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B856" t="n">
+        <v>1429.849975585938</v>
+      </c>
+      <c r="C856" t="n">
+        <v>1468.5</v>
+      </c>
+      <c r="D856" t="n">
+        <v>1388</v>
+      </c>
+      <c r="E856" t="n">
+        <v>1400.150024414062</v>
+      </c>
+      <c r="F856" t="inlineStr"/>
+      <c r="G856" t="n">
+        <v>3483663</v>
+      </c>
+      <c r="H856" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I856" t="n">
+        <v>9</v>
+      </c>
+      <c r="J856" t="n">
+        <v>2</v>
+      </c>
+      <c r="K856" t="n">
+        <v>0</v>
+      </c>
+      <c r="L856" t="n">
+        <v>0</v>
+      </c>
+      <c r="M856" t="n">
+        <v>0</v>
+      </c>
+      <c r="N856" t="n">
+        <v>36</v>
+      </c>
+      <c r="O856" t="n">
+        <v>0</v>
+      </c>
+      <c r="P856" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q856" t="n">
+        <v>0</v>
+      </c>
+      <c r="R856" t="inlineStr"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B857" t="n">
+        <v>1397.800048828125</v>
+      </c>
+      <c r="C857" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D857" t="n">
+        <v>1340</v>
+      </c>
+      <c r="E857" t="n">
+        <v>1348.050048828125</v>
+      </c>
+      <c r="F857" t="inlineStr"/>
+      <c r="G857" t="n">
+        <v>2110303</v>
+      </c>
+      <c r="H857" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I857" t="n">
+        <v>9</v>
+      </c>
+      <c r="J857" t="n">
+        <v>9</v>
+      </c>
+      <c r="K857" t="n">
+        <v>0</v>
+      </c>
+      <c r="L857" t="n">
+        <v>0</v>
+      </c>
+      <c r="M857" t="n">
+        <v>0</v>
+      </c>
+      <c r="N857" t="n">
+        <v>37</v>
+      </c>
+      <c r="O857" t="n">
+        <v>0</v>
+      </c>
+      <c r="P857" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q857" t="n">
+        <v>0</v>
+      </c>
+      <c r="R857" t="inlineStr"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B858" t="n">
+        <v>1352</v>
+      </c>
+      <c r="C858" t="n">
+        <v>1359.650024414062</v>
+      </c>
+      <c r="D858" t="n">
+        <v>1222.099975585938</v>
+      </c>
+      <c r="E858" t="n">
+        <v>1320.349975585938</v>
+      </c>
+      <c r="F858" t="inlineStr"/>
+      <c r="G858" t="n">
+        <v>4945966</v>
+      </c>
+      <c r="H858" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I858" t="n">
+        <v>9</v>
+      </c>
+      <c r="J858" t="n">
+        <v>16</v>
+      </c>
+      <c r="K858" t="n">
+        <v>0</v>
+      </c>
+      <c r="L858" t="n">
+        <v>0</v>
+      </c>
+      <c r="M858" t="n">
+        <v>0</v>
+      </c>
+      <c r="N858" t="n">
+        <v>38</v>
+      </c>
+      <c r="O858" t="n">
+        <v>0</v>
+      </c>
+      <c r="P858" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q858" t="n">
+        <v>0</v>
+      </c>
+      <c r="R858" t="inlineStr"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B859" t="n">
+        <v>1325.099975585938</v>
+      </c>
+      <c r="C859" t="n">
+        <v>1338.300048828125</v>
+      </c>
+      <c r="D859" t="n">
+        <v>1223</v>
+      </c>
+      <c r="E859" t="n">
+        <v>1226.849975585938</v>
+      </c>
+      <c r="F859" t="inlineStr"/>
+      <c r="G859" t="n">
+        <v>2690685</v>
+      </c>
+      <c r="H859" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I859" t="n">
+        <v>9</v>
+      </c>
+      <c r="J859" t="n">
+        <v>23</v>
+      </c>
+      <c r="K859" t="n">
+        <v>0</v>
+      </c>
+      <c r="L859" t="n">
+        <v>0</v>
+      </c>
+      <c r="M859" t="n">
+        <v>0</v>
+      </c>
+      <c r="N859" t="n">
+        <v>39</v>
+      </c>
+      <c r="O859" t="n">
+        <v>0</v>
+      </c>
+      <c r="P859" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q859" t="n">
+        <v>0</v>
+      </c>
+      <c r="R859" t="inlineStr"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B860" t="n">
+        <v>1226.849975585938</v>
+      </c>
+      <c r="C860" t="n">
+        <v>1243.949951171875</v>
+      </c>
+      <c r="D860" t="n">
+        <v>1105.199951171875</v>
+      </c>
+      <c r="E860" t="n">
+        <v>1120.150024414062</v>
+      </c>
+      <c r="F860" t="inlineStr"/>
+      <c r="G860" t="n">
+        <v>6318827</v>
+      </c>
+      <c r="H860" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I860" t="n">
+        <v>9</v>
+      </c>
+      <c r="J860" t="n">
+        <v>30</v>
+      </c>
+      <c r="K860" t="n">
+        <v>0</v>
+      </c>
+      <c r="L860" t="n">
+        <v>0</v>
+      </c>
+      <c r="M860" t="n">
+        <v>0</v>
+      </c>
+      <c r="N860" t="n">
+        <v>40</v>
+      </c>
+      <c r="O860" t="n">
+        <v>0</v>
+      </c>
+      <c r="P860" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q860" t="n">
+        <v>0</v>
+      </c>
+      <c r="R860" t="inlineStr"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B861" t="n">
+        <v>1136.849975585938</v>
+      </c>
+      <c r="C861" t="n">
+        <v>1146</v>
+      </c>
+      <c r="D861" t="n">
+        <v>1048.699951171875</v>
+      </c>
+      <c r="E861" t="n">
+        <v>1093.849975585938</v>
+      </c>
+      <c r="F861" t="inlineStr"/>
+      <c r="G861" t="n">
+        <v>9622014</v>
+      </c>
+      <c r="H861" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I861" t="n">
+        <v>10</v>
+      </c>
+      <c r="J861" t="n">
+        <v>7</v>
+      </c>
+      <c r="K861" t="n">
+        <v>0</v>
+      </c>
+      <c r="L861" t="n">
+        <v>0</v>
+      </c>
+      <c r="M861" t="n">
+        <v>0</v>
+      </c>
+      <c r="N861" t="n">
+        <v>41</v>
+      </c>
+      <c r="O861" t="n">
+        <v>2</v>
+      </c>
+      <c r="P861" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q861" t="n">
+        <v>0</v>
+      </c>
+      <c r="R861" t="inlineStr"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B862" t="n">
+        <v>1110.25</v>
+      </c>
+      <c r="C862" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D862" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E862" t="n">
+        <v>1197.5</v>
+      </c>
+      <c r="F862" t="inlineStr"/>
+      <c r="G862" t="n">
+        <v>24716993</v>
+      </c>
+      <c r="H862" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I862" t="n">
+        <v>10</v>
+      </c>
+      <c r="J862" t="n">
+        <v>14</v>
+      </c>
+      <c r="K862" t="n">
+        <v>0</v>
+      </c>
+      <c r="L862" t="n">
+        <v>0</v>
+      </c>
+      <c r="M862" t="n">
+        <v>0</v>
+      </c>
+      <c r="N862" t="n">
+        <v>42</v>
+      </c>
+      <c r="O862" t="n">
+        <v>0</v>
+      </c>
+      <c r="P862" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q862" t="n">
+        <v>0</v>
+      </c>
+      <c r="R862" t="inlineStr"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B863" t="n">
+        <v>1197</v>
+      </c>
+      <c r="C863" t="n">
+        <v>1217.650024414062</v>
+      </c>
+      <c r="D863" t="n">
+        <v>1088.349975585938</v>
+      </c>
+      <c r="E863" t="n">
+        <v>1146.400024414062</v>
+      </c>
+      <c r="F863" t="inlineStr"/>
+      <c r="G863" t="n">
+        <v>14171955</v>
+      </c>
+      <c r="H863" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I863" t="n">
+        <v>10</v>
+      </c>
+      <c r="J863" t="n">
+        <v>21</v>
+      </c>
+      <c r="K863" t="n">
+        <v>0</v>
+      </c>
+      <c r="L863" t="n">
+        <v>0</v>
+      </c>
+      <c r="M863" t="n">
+        <v>0</v>
+      </c>
+      <c r="N863" t="n">
+        <v>43</v>
+      </c>
+      <c r="O863" t="n">
+        <v>0</v>
+      </c>
+      <c r="P863" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q863" t="n">
+        <v>0</v>
+      </c>
+      <c r="R863" t="inlineStr"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B864" t="n">
+        <v>1161.300048828125</v>
+      </c>
+      <c r="C864" t="n">
+        <v>1249.900024414062</v>
+      </c>
+      <c r="D864" t="n">
+        <v>1118</v>
+      </c>
+      <c r="E864" t="n">
+        <v>1230.800048828125</v>
+      </c>
+      <c r="F864" t="inlineStr"/>
+      <c r="G864" t="n">
+        <v>7401220</v>
+      </c>
+      <c r="H864" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I864" t="n">
+        <v>10</v>
+      </c>
+      <c r="J864" t="n">
+        <v>28</v>
+      </c>
+      <c r="K864" t="n">
+        <v>0</v>
+      </c>
+      <c r="L864" t="n">
+        <v>0</v>
+      </c>
+      <c r="M864" t="n">
+        <v>0</v>
+      </c>
+      <c r="N864" t="n">
+        <v>44</v>
+      </c>
+      <c r="O864" t="n">
+        <v>0</v>
+      </c>
+      <c r="P864" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q864" t="n">
+        <v>0</v>
+      </c>
+      <c r="R864" t="inlineStr"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B865" t="n">
+        <v>1235.5</v>
+      </c>
+      <c r="C865" t="n">
+        <v>1235.5</v>
+      </c>
+      <c r="D865" t="n">
+        <v>1143.099975585938</v>
+      </c>
+      <c r="E865" t="n">
+        <v>1150.599975585938</v>
+      </c>
+      <c r="F865" t="inlineStr"/>
+      <c r="G865" t="n">
+        <v>4292872</v>
+      </c>
+      <c r="H865" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I865" t="n">
+        <v>11</v>
+      </c>
+      <c r="J865" t="n">
+        <v>4</v>
+      </c>
+      <c r="K865" t="n">
+        <v>0</v>
+      </c>
+      <c r="L865" t="n">
+        <v>0</v>
+      </c>
+      <c r="M865" t="n">
+        <v>0</v>
+      </c>
+      <c r="N865" t="n">
+        <v>45</v>
+      </c>
+      <c r="O865" t="n">
+        <v>0</v>
+      </c>
+      <c r="P865" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q865" t="n">
+        <v>0</v>
+      </c>
+      <c r="R865" t="inlineStr"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B866" t="n">
+        <v>1156.050048828125</v>
+      </c>
+      <c r="C866" t="n">
+        <v>1197.449951171875</v>
+      </c>
+      <c r="D866" t="n">
+        <v>1080</v>
+      </c>
+      <c r="E866" t="n">
+        <v>1110.400024414062</v>
+      </c>
+      <c r="F866" t="inlineStr"/>
+      <c r="G866" t="n">
+        <v>3553173</v>
+      </c>
+      <c r="H866" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I866" t="n">
+        <v>11</v>
+      </c>
+      <c r="J866" t="n">
+        <v>11</v>
+      </c>
+      <c r="K866" t="n">
+        <v>0</v>
+      </c>
+      <c r="L866" t="n">
+        <v>0</v>
+      </c>
+      <c r="M866" t="n">
+        <v>0</v>
+      </c>
+      <c r="N866" t="n">
+        <v>46</v>
+      </c>
+      <c r="O866" t="n">
+        <v>0</v>
+      </c>
+      <c r="P866" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q866" t="n">
+        <v>0</v>
+      </c>
+      <c r="R866" t="inlineStr"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B867" t="n">
+        <v>1116.949951171875</v>
+      </c>
+      <c r="C867" t="n">
+        <v>1133.900024414062</v>
+      </c>
+      <c r="D867" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E867" t="n">
+        <v>1095.300048828125</v>
+      </c>
+      <c r="F867" t="inlineStr"/>
+      <c r="G867" t="n">
+        <v>2485422</v>
+      </c>
+      <c r="H867" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I867" t="n">
+        <v>11</v>
+      </c>
+      <c r="J867" t="n">
+        <v>18</v>
+      </c>
+      <c r="K867" t="n">
+        <v>0</v>
+      </c>
+      <c r="L867" t="n">
+        <v>0</v>
+      </c>
+      <c r="M867" t="n">
+        <v>0</v>
+      </c>
+      <c r="N867" t="n">
+        <v>47</v>
+      </c>
+      <c r="O867" t="n">
+        <v>2</v>
+      </c>
+      <c r="P867" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q867" t="n">
+        <v>1</v>
+      </c>
+      <c r="R867" t="inlineStr"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B868" t="n">
+        <v>1138.900024414062</v>
+      </c>
+      <c r="C868" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D868" t="n">
+        <v>1121.050048828125</v>
+      </c>
+      <c r="E868" t="n">
+        <v>1205.5</v>
+      </c>
+      <c r="F868" t="inlineStr"/>
+      <c r="G868" t="n">
+        <v>8422231</v>
+      </c>
+      <c r="H868" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I868" t="n">
+        <v>11</v>
+      </c>
+      <c r="J868" t="n">
+        <v>25</v>
+      </c>
+      <c r="K868" t="n">
+        <v>0</v>
+      </c>
+      <c r="L868" t="n">
+        <v>0</v>
+      </c>
+      <c r="M868" t="n">
+        <v>0</v>
+      </c>
+      <c r="N868" t="n">
+        <v>48</v>
+      </c>
+      <c r="O868" t="n">
+        <v>0</v>
+      </c>
+      <c r="P868" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q868" t="n">
+        <v>0</v>
+      </c>
+      <c r="R868" t="inlineStr"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B869" t="n">
+        <v>1202.5</v>
+      </c>
+      <c r="C869" t="n">
+        <v>1243</v>
+      </c>
+      <c r="D869" t="n">
+        <v>1175.099975585938</v>
+      </c>
+      <c r="E869" t="n">
+        <v>1190</v>
+      </c>
+      <c r="F869" t="inlineStr"/>
+      <c r="G869" t="n">
+        <v>4652391</v>
+      </c>
+      <c r="H869" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I869" t="n">
+        <v>12</v>
+      </c>
+      <c r="J869" t="n">
+        <v>2</v>
+      </c>
+      <c r="K869" t="n">
+        <v>0</v>
+      </c>
+      <c r="L869" t="n">
+        <v>0</v>
+      </c>
+      <c r="M869" t="n">
+        <v>0</v>
+      </c>
+      <c r="N869" t="n">
+        <v>49</v>
+      </c>
+      <c r="O869" t="n">
+        <v>0</v>
+      </c>
+      <c r="P869" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q869" t="n">
+        <v>0</v>
+      </c>
+      <c r="R869" t="inlineStr"/>
+    </row>
+    <row r="870">
+      <c r="A870" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B870" t="n">
+        <v>1210</v>
+      </c>
+      <c r="C870" t="n">
+        <v>1357.800048828125</v>
+      </c>
+      <c r="D870" t="n">
+        <v>1198.900024414062</v>
+      </c>
+      <c r="E870" t="n">
+        <v>1307.550048828125</v>
+      </c>
+      <c r="F870" t="inlineStr"/>
+      <c r="G870" t="n">
+        <v>19525372</v>
+      </c>
+      <c r="H870" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I870" t="n">
+        <v>12</v>
+      </c>
+      <c r="J870" t="n">
+        <v>9</v>
+      </c>
+      <c r="K870" t="n">
+        <v>0</v>
+      </c>
+      <c r="L870" t="n">
+        <v>0</v>
+      </c>
+      <c r="M870" t="n">
+        <v>0</v>
+      </c>
+      <c r="N870" t="n">
+        <v>50</v>
+      </c>
+      <c r="O870" t="n">
+        <v>0</v>
+      </c>
+      <c r="P870" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q870" t="n">
+        <v>0</v>
+      </c>
+      <c r="R870" t="inlineStr"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B871" t="n">
+        <v>1308.599975585938</v>
+      </c>
+      <c r="C871" t="n">
+        <v>1370</v>
+      </c>
+      <c r="D871" t="n">
+        <v>1230</v>
+      </c>
+      <c r="E871" t="n">
+        <v>1310.550048828125</v>
+      </c>
+      <c r="F871" t="inlineStr"/>
+      <c r="G871" t="n">
+        <v>7207253</v>
+      </c>
+      <c r="H871" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I871" t="n">
+        <v>12</v>
+      </c>
+      <c r="J871" t="n">
+        <v>16</v>
+      </c>
+      <c r="K871" t="n">
+        <v>0</v>
+      </c>
+      <c r="L871" t="n">
+        <v>0</v>
+      </c>
+      <c r="M871" t="n">
+        <v>0</v>
+      </c>
+      <c r="N871" t="n">
+        <v>51</v>
+      </c>
+      <c r="O871" t="n">
+        <v>1</v>
+      </c>
+      <c r="P871" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q871" t="n">
+        <v>0</v>
+      </c>
+      <c r="R871" t="inlineStr"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B872" t="n">
+        <v>1322.449951171875</v>
+      </c>
+      <c r="C872" t="n">
+        <v>1330</v>
+      </c>
+      <c r="D872" t="n">
+        <v>1144.199951171875</v>
+      </c>
+      <c r="E872" t="n">
+        <v>1148.349975585938</v>
+      </c>
+      <c r="F872" t="inlineStr"/>
+      <c r="G872" t="n">
+        <v>5026063</v>
+      </c>
+      <c r="H872" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I872" t="n">
+        <v>12</v>
+      </c>
+      <c r="J872" t="n">
+        <v>23</v>
+      </c>
+      <c r="K872" t="n">
+        <v>0</v>
+      </c>
+      <c r="L872" t="n">
+        <v>0</v>
+      </c>
+      <c r="M872" t="n">
+        <v>0</v>
+      </c>
+      <c r="N872" t="n">
+        <v>52</v>
+      </c>
+      <c r="O872" t="n">
+        <v>0</v>
+      </c>
+      <c r="P872" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q872" t="n">
+        <v>0</v>
+      </c>
+      <c r="R872" t="inlineStr"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B873" t="n">
+        <v>1159.699951171875</v>
+      </c>
+      <c r="C873" t="n">
+        <v>1160</v>
+      </c>
+      <c r="D873" t="n">
+        <v>1096</v>
+      </c>
+      <c r="E873" t="n">
+        <v>1117.699951171875</v>
+      </c>
+      <c r="F873" t="inlineStr"/>
+      <c r="G873" t="n">
+        <v>7365546</v>
+      </c>
+      <c r="H873" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I873" t="n">
+        <v>12</v>
+      </c>
+      <c r="J873" t="n">
+        <v>30</v>
+      </c>
+      <c r="K873" t="n">
+        <v>0</v>
+      </c>
+      <c r="L873" t="n">
+        <v>0</v>
+      </c>
+      <c r="M873" t="n">
+        <v>0</v>
+      </c>
+      <c r="N873" t="n">
+        <v>1</v>
+      </c>
+      <c r="O873" t="n">
+        <v>0</v>
+      </c>
+      <c r="P873" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q873" t="n">
+        <v>1</v>
+      </c>
+      <c r="R873" t="inlineStr"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B874" t="n">
+        <v>1128</v>
+      </c>
+      <c r="C874" t="n">
+        <v>1148.949951171875</v>
+      </c>
+      <c r="D874" t="n">
+        <v>1021</v>
+      </c>
+      <c r="E874" t="n">
+        <v>1039.650024414062</v>
+      </c>
+      <c r="F874" t="inlineStr"/>
+      <c r="G874" t="n">
+        <v>6239909</v>
+      </c>
+      <c r="H874" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I874" t="n">
+        <v>1</v>
+      </c>
+      <c r="J874" t="n">
+        <v>6</v>
+      </c>
+      <c r="K874" t="n">
+        <v>0</v>
+      </c>
+      <c r="L874" t="n">
+        <v>0</v>
+      </c>
+      <c r="M874" t="n">
+        <v>0</v>
+      </c>
+      <c r="N874" t="n">
+        <v>2</v>
+      </c>
+      <c r="O874" t="n">
+        <v>0</v>
+      </c>
+      <c r="P874" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q874" t="n">
+        <v>0</v>
+      </c>
+      <c r="R874" t="inlineStr"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B875" t="n">
+        <v>1035.050048828125</v>
+      </c>
+      <c r="C875" t="n">
+        <v>1111</v>
+      </c>
+      <c r="D875" t="n">
+        <v>985.3499755859375</v>
+      </c>
+      <c r="E875" t="n">
+        <v>1082.199951171875</v>
+      </c>
+      <c r="F875" t="inlineStr"/>
+      <c r="G875" t="n">
+        <v>10958667</v>
+      </c>
+      <c r="H875" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I875" t="n">
+        <v>1</v>
+      </c>
+      <c r="J875" t="n">
+        <v>13</v>
+      </c>
+      <c r="K875" t="n">
+        <v>0</v>
+      </c>
+      <c r="L875" t="n">
+        <v>0</v>
+      </c>
+      <c r="M875" t="n">
+        <v>0</v>
+      </c>
+      <c r="N875" t="n">
+        <v>3</v>
+      </c>
+      <c r="O875" t="n">
+        <v>0</v>
+      </c>
+      <c r="P875" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q875" t="n">
+        <v>0</v>
+      </c>
+      <c r="R875" t="inlineStr"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B876" t="n">
+        <v>1092.400024414062</v>
+      </c>
+      <c r="C876" t="n">
+        <v>1099.5</v>
+      </c>
+      <c r="D876" t="n">
+        <v>963</v>
+      </c>
+      <c r="E876" t="n">
+        <v>968.4500122070312</v>
+      </c>
+      <c r="F876" t="inlineStr"/>
+      <c r="G876" t="n">
+        <v>6162961</v>
+      </c>
+      <c r="H876" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I876" t="n">
+        <v>1</v>
+      </c>
+      <c r="J876" t="n">
+        <v>20</v>
+      </c>
+      <c r="K876" t="n">
+        <v>0</v>
+      </c>
+      <c r="L876" t="n">
+        <v>0</v>
+      </c>
+      <c r="M876" t="n">
+        <v>0</v>
+      </c>
+      <c r="N876" t="n">
+        <v>4</v>
+      </c>
+      <c r="O876" t="n">
+        <v>0</v>
+      </c>
+      <c r="P876" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q876" t="n">
+        <v>0</v>
+      </c>
+      <c r="R876" t="inlineStr"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B877" t="n">
+        <v>960.1500244140625</v>
+      </c>
+      <c r="C877" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D877" t="n">
+        <v>890.1500244140625</v>
+      </c>
+      <c r="E877" t="n">
+        <v>956</v>
+      </c>
+      <c r="F877" t="inlineStr"/>
+      <c r="G877" t="n">
+        <v>18585981</v>
+      </c>
+      <c r="H877" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I877" t="n">
+        <v>1</v>
+      </c>
+      <c r="J877" t="n">
+        <v>27</v>
+      </c>
+      <c r="K877" t="n">
+        <v>0</v>
+      </c>
+      <c r="L877" t="n">
+        <v>0</v>
+      </c>
+      <c r="M877" t="n">
+        <v>0</v>
+      </c>
+      <c r="N877" t="n">
+        <v>5</v>
+      </c>
+      <c r="O877" t="n">
+        <v>0</v>
+      </c>
+      <c r="P877" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q877" t="n">
+        <v>2</v>
+      </c>
+      <c r="R877" t="inlineStr"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B878" t="n">
+        <v>935.0499877929688</v>
+      </c>
+      <c r="C878" t="n">
+        <v>964.1500244140625</v>
+      </c>
+      <c r="D878" t="n">
+        <v>880</v>
+      </c>
+      <c r="E878" t="n">
+        <v>883.0499877929688</v>
+      </c>
+      <c r="F878" t="inlineStr"/>
+      <c r="G878" t="n">
+        <v>12907493</v>
+      </c>
+      <c r="H878" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I878" t="n">
+        <v>2</v>
+      </c>
+      <c r="J878" t="n">
+        <v>3</v>
+      </c>
+      <c r="K878" t="n">
+        <v>0</v>
+      </c>
+      <c r="L878" t="n">
+        <v>0</v>
+      </c>
+      <c r="M878" t="n">
+        <v>0</v>
+      </c>
+      <c r="N878" t="n">
+        <v>6</v>
+      </c>
+      <c r="O878" t="n">
+        <v>0</v>
+      </c>
+      <c r="P878" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q878" t="n">
+        <v>0</v>
+      </c>
+      <c r="R878" t="inlineStr"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B879" t="n">
+        <v>885.0999755859375</v>
+      </c>
+      <c r="C879" t="n">
+        <v>905</v>
+      </c>
+      <c r="D879" t="n">
+        <v>790.8499755859375</v>
+      </c>
+      <c r="E879" t="n">
+        <v>804.6500244140625</v>
+      </c>
+      <c r="F879" t="inlineStr"/>
+      <c r="G879" t="n">
+        <v>9035633</v>
+      </c>
+      <c r="H879" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I879" t="n">
+        <v>2</v>
+      </c>
+      <c r="J879" t="n">
+        <v>10</v>
+      </c>
+      <c r="K879" t="n">
+        <v>0</v>
+      </c>
+      <c r="L879" t="n">
+        <v>0</v>
+      </c>
+      <c r="M879" t="n">
+        <v>0</v>
+      </c>
+      <c r="N879" t="n">
+        <v>7</v>
+      </c>
+      <c r="O879" t="n">
+        <v>0</v>
+      </c>
+      <c r="P879" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q879" t="n">
+        <v>0</v>
+      </c>
+      <c r="R879" t="inlineStr"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B880" t="n">
+        <v>800</v>
+      </c>
+      <c r="C880" t="n">
+        <v>822.9500122070312</v>
+      </c>
+      <c r="D880" t="n">
+        <v>747.8499755859375</v>
+      </c>
+      <c r="E880" t="n">
+        <v>783.0999755859375</v>
+      </c>
+      <c r="F880" t="inlineStr"/>
+      <c r="G880" t="n">
+        <v>8646785</v>
+      </c>
+      <c r="H880" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I880" t="n">
+        <v>2</v>
+      </c>
+      <c r="J880" t="n">
+        <v>17</v>
+      </c>
+      <c r="K880" t="n">
+        <v>0</v>
+      </c>
+      <c r="L880" t="n">
+        <v>0</v>
+      </c>
+      <c r="M880" t="n">
+        <v>0</v>
+      </c>
+      <c r="N880" t="n">
+        <v>8</v>
+      </c>
+      <c r="O880" t="n">
+        <v>0</v>
+      </c>
+      <c r="P880" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q880" t="n">
+        <v>0</v>
+      </c>
+      <c r="R880" t="inlineStr"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B881" t="n">
+        <v>778.75</v>
+      </c>
+      <c r="C881" t="n">
+        <v>785.7000122070312</v>
+      </c>
+      <c r="D881" t="n">
+        <v>692.7000122070312</v>
+      </c>
+      <c r="E881" t="n">
+        <v>697</v>
+      </c>
+      <c r="F881" t="inlineStr"/>
+      <c r="G881" t="n">
+        <v>5726954</v>
+      </c>
+      <c r="H881" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I881" t="n">
+        <v>2</v>
+      </c>
+      <c r="J881" t="n">
+        <v>24</v>
+      </c>
+      <c r="K881" t="n">
+        <v>0</v>
+      </c>
+      <c r="L881" t="n">
+        <v>0</v>
+      </c>
+      <c r="M881" t="n">
+        <v>0</v>
+      </c>
+      <c r="N881" t="n">
+        <v>9</v>
+      </c>
+      <c r="O881" t="n">
+        <v>0</v>
+      </c>
+      <c r="P881" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q881" t="n">
+        <v>0</v>
+      </c>
+      <c r="R881" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TITAGARH.NS.xlsx
+++ b/stock_historical_data/1wk/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R881"/>
+  <dimension ref="A1:R885"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47899,7 +47899,9 @@
       <c r="Q847" t="n">
         <v>0</v>
       </c>
-      <c r="R847" t="inlineStr"/>
+      <c r="R847" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="848">
       <c r="A848" s="2" t="n">
@@ -47951,7 +47953,9 @@
       <c r="Q848" t="n">
         <v>0</v>
       </c>
-      <c r="R848" t="inlineStr"/>
+      <c r="R848" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="849">
       <c r="A849" s="2" t="n">
@@ -48003,7 +48007,9 @@
       <c r="Q849" t="n">
         <v>1</v>
       </c>
-      <c r="R849" t="inlineStr"/>
+      <c r="R849" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="850">
       <c r="A850" s="2" t="n">
@@ -48055,7 +48061,9 @@
       <c r="Q850" t="n">
         <v>0</v>
       </c>
-      <c r="R850" t="inlineStr"/>
+      <c r="R850" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="851">
       <c r="A851" s="2" t="n">
@@ -48107,7 +48115,9 @@
       <c r="Q851" t="n">
         <v>0</v>
       </c>
-      <c r="R851" t="inlineStr"/>
+      <c r="R851" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="852">
       <c r="A852" s="2" t="n">
@@ -48159,7 +48169,9 @@
       <c r="Q852" t="n">
         <v>2</v>
       </c>
-      <c r="R852" t="inlineStr"/>
+      <c r="R852" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="853">
       <c r="A853" s="2" t="n">
@@ -48211,7 +48223,9 @@
       <c r="Q853" t="n">
         <v>0</v>
       </c>
-      <c r="R853" t="inlineStr"/>
+      <c r="R853" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
@@ -48263,7 +48277,9 @@
       <c r="Q854" t="n">
         <v>0</v>
       </c>
-      <c r="R854" t="inlineStr"/>
+      <c r="R854" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
@@ -48315,7 +48331,9 @@
       <c r="Q855" t="n">
         <v>0</v>
       </c>
-      <c r="R855" t="inlineStr"/>
+      <c r="R855" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="856">
       <c r="A856" s="2" t="n">
@@ -48367,7 +48385,9 @@
       <c r="Q856" t="n">
         <v>0</v>
       </c>
-      <c r="R856" t="inlineStr"/>
+      <c r="R856" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="857">
       <c r="A857" s="2" t="n">
@@ -48419,7 +48439,9 @@
       <c r="Q857" t="n">
         <v>0</v>
       </c>
-      <c r="R857" t="inlineStr"/>
+      <c r="R857" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="858">
       <c r="A858" s="2" t="n">
@@ -48471,7 +48493,9 @@
       <c r="Q858" t="n">
         <v>0</v>
       </c>
-      <c r="R858" t="inlineStr"/>
+      <c r="R858" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="859">
       <c r="A859" s="2" t="n">
@@ -48523,7 +48547,9 @@
       <c r="Q859" t="n">
         <v>0</v>
       </c>
-      <c r="R859" t="inlineStr"/>
+      <c r="R859" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
@@ -48575,7 +48601,9 @@
       <c r="Q860" t="n">
         <v>0</v>
       </c>
-      <c r="R860" t="inlineStr"/>
+      <c r="R860" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="861">
       <c r="A861" s="2" t="n">
@@ -48627,7 +48655,9 @@
       <c r="Q861" t="n">
         <v>0</v>
       </c>
-      <c r="R861" t="inlineStr"/>
+      <c r="R861" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="862">
       <c r="A862" s="2" t="n">
@@ -48679,7 +48709,9 @@
       <c r="Q862" t="n">
         <v>0</v>
       </c>
-      <c r="R862" t="inlineStr"/>
+      <c r="R862" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="863">
       <c r="A863" s="2" t="n">
@@ -48731,7 +48763,9 @@
       <c r="Q863" t="n">
         <v>0</v>
       </c>
-      <c r="R863" t="inlineStr"/>
+      <c r="R863" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="864">
       <c r="A864" s="2" t="n">
@@ -48783,7 +48817,9 @@
       <c r="Q864" t="n">
         <v>0</v>
       </c>
-      <c r="R864" t="inlineStr"/>
+      <c r="R864" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="865">
       <c r="A865" s="2" t="n">
@@ -48835,7 +48871,9 @@
       <c r="Q865" t="n">
         <v>0</v>
       </c>
-      <c r="R865" t="inlineStr"/>
+      <c r="R865" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
@@ -48887,7 +48925,9 @@
       <c r="Q866" t="n">
         <v>0</v>
       </c>
-      <c r="R866" t="inlineStr"/>
+      <c r="R866" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="867">
       <c r="A867" s="2" t="n">
@@ -48939,7 +48979,9 @@
       <c r="Q867" t="n">
         <v>1</v>
       </c>
-      <c r="R867" t="inlineStr"/>
+      <c r="R867" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="868">
       <c r="A868" s="2" t="n">
@@ -48991,7 +49033,9 @@
       <c r="Q868" t="n">
         <v>0</v>
       </c>
-      <c r="R868" t="inlineStr"/>
+      <c r="R868" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="869">
       <c r="A869" s="2" t="n">
@@ -49043,7 +49087,9 @@
       <c r="Q869" t="n">
         <v>0</v>
       </c>
-      <c r="R869" t="inlineStr"/>
+      <c r="R869" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="870">
       <c r="A870" s="2" t="n">
@@ -49095,7 +49141,9 @@
       <c r="Q870" t="n">
         <v>0</v>
       </c>
-      <c r="R870" t="inlineStr"/>
+      <c r="R870" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="871">
       <c r="A871" s="2" t="n">
@@ -49147,7 +49195,9 @@
       <c r="Q871" t="n">
         <v>0</v>
       </c>
-      <c r="R871" t="inlineStr"/>
+      <c r="R871" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="872">
       <c r="A872" s="2" t="n">
@@ -49199,7 +49249,9 @@
       <c r="Q872" t="n">
         <v>0</v>
       </c>
-      <c r="R872" t="inlineStr"/>
+      <c r="R872" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="873">
       <c r="A873" s="2" t="n">
@@ -49251,7 +49303,9 @@
       <c r="Q873" t="n">
         <v>1</v>
       </c>
-      <c r="R873" t="inlineStr"/>
+      <c r="R873" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="874">
       <c r="A874" s="2" t="n">
@@ -49303,7 +49357,9 @@
       <c r="Q874" t="n">
         <v>0</v>
       </c>
-      <c r="R874" t="inlineStr"/>
+      <c r="R874" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="875">
       <c r="A875" s="2" t="n">
@@ -49355,7 +49411,9 @@
       <c r="Q875" t="n">
         <v>0</v>
       </c>
-      <c r="R875" t="inlineStr"/>
+      <c r="R875" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="876">
       <c r="A876" s="2" t="n">
@@ -49407,7 +49465,9 @@
       <c r="Q876" t="n">
         <v>0</v>
       </c>
-      <c r="R876" t="inlineStr"/>
+      <c r="R876" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="877">
       <c r="A877" s="2" t="n">
@@ -49459,7 +49519,9 @@
       <c r="Q877" t="n">
         <v>2</v>
       </c>
-      <c r="R877" t="inlineStr"/>
+      <c r="R877" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="878">
       <c r="A878" s="2" t="n">
@@ -49511,7 +49573,9 @@
       <c r="Q878" t="n">
         <v>0</v>
       </c>
-      <c r="R878" t="inlineStr"/>
+      <c r="R878" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="879">
       <c r="A879" s="2" t="n">
@@ -49563,7 +49627,9 @@
       <c r="Q879" t="n">
         <v>0</v>
       </c>
-      <c r="R879" t="inlineStr"/>
+      <c r="R879" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
@@ -49615,7 +49681,9 @@
       <c r="Q880" t="n">
         <v>0</v>
       </c>
-      <c r="R880" t="inlineStr"/>
+      <c r="R880" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
@@ -49667,7 +49735,217 @@
       <c r="Q881" t="n">
         <v>0</v>
       </c>
-      <c r="R881" t="inlineStr"/>
+      <c r="R881" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B882" t="n">
+        <v>698.5499877929688</v>
+      </c>
+      <c r="C882" t="n">
+        <v>784.0499877929688</v>
+      </c>
+      <c r="D882" t="n">
+        <v>654.5499877929688</v>
+      </c>
+      <c r="E882" t="n">
+        <v>759</v>
+      </c>
+      <c r="F882" t="inlineStr"/>
+      <c r="G882" t="n">
+        <v>14288193</v>
+      </c>
+      <c r="H882" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I882" t="n">
+        <v>3</v>
+      </c>
+      <c r="J882" t="n">
+        <v>3</v>
+      </c>
+      <c r="K882" t="n">
+        <v>0</v>
+      </c>
+      <c r="L882" t="n">
+        <v>0</v>
+      </c>
+      <c r="M882" t="n">
+        <v>0</v>
+      </c>
+      <c r="N882" t="n">
+        <v>10</v>
+      </c>
+      <c r="O882" t="n">
+        <v>0</v>
+      </c>
+      <c r="P882" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q882" t="n">
+        <v>0</v>
+      </c>
+      <c r="R882" t="inlineStr"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B883" t="n">
+        <v>764.5</v>
+      </c>
+      <c r="C883" t="n">
+        <v>764.9500122070312</v>
+      </c>
+      <c r="D883" t="n">
+        <v>677.25</v>
+      </c>
+      <c r="E883" t="n">
+        <v>694.2999877929688</v>
+      </c>
+      <c r="F883" t="inlineStr"/>
+      <c r="G883" t="n">
+        <v>7222351</v>
+      </c>
+      <c r="H883" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I883" t="n">
+        <v>3</v>
+      </c>
+      <c r="J883" t="n">
+        <v>10</v>
+      </c>
+      <c r="K883" t="n">
+        <v>0</v>
+      </c>
+      <c r="L883" t="n">
+        <v>0</v>
+      </c>
+      <c r="M883" t="n">
+        <v>0</v>
+      </c>
+      <c r="N883" t="n">
+        <v>11</v>
+      </c>
+      <c r="O883" t="n">
+        <v>0</v>
+      </c>
+      <c r="P883" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q883" t="n">
+        <v>0</v>
+      </c>
+      <c r="R883" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B884" t="n">
+        <v>695</v>
+      </c>
+      <c r="C884" t="n">
+        <v>802</v>
+      </c>
+      <c r="D884" t="n">
+        <v>686</v>
+      </c>
+      <c r="E884" t="n">
+        <v>784.5</v>
+      </c>
+      <c r="F884" t="inlineStr"/>
+      <c r="G884" t="n">
+        <v>12942010</v>
+      </c>
+      <c r="H884" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I884" t="n">
+        <v>3</v>
+      </c>
+      <c r="J884" t="n">
+        <v>17</v>
+      </c>
+      <c r="K884" t="n">
+        <v>0</v>
+      </c>
+      <c r="L884" t="n">
+        <v>0</v>
+      </c>
+      <c r="M884" t="n">
+        <v>0</v>
+      </c>
+      <c r="N884" t="n">
+        <v>12</v>
+      </c>
+      <c r="O884" t="n">
+        <v>0</v>
+      </c>
+      <c r="P884" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q884" t="n">
+        <v>0</v>
+      </c>
+      <c r="R884" t="inlineStr"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B885" t="n">
+        <v>799</v>
+      </c>
+      <c r="C885" t="n">
+        <v>836.9500122070312</v>
+      </c>
+      <c r="D885" t="n">
+        <v>789.25</v>
+      </c>
+      <c r="E885" t="n">
+        <v>796.25</v>
+      </c>
+      <c r="F885" t="inlineStr"/>
+      <c r="G885" t="n">
+        <v>12757522</v>
+      </c>
+      <c r="H885" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I885" t="n">
+        <v>3</v>
+      </c>
+      <c r="J885" t="n">
+        <v>24</v>
+      </c>
+      <c r="K885" t="n">
+        <v>0</v>
+      </c>
+      <c r="L885" t="n">
+        <v>0</v>
+      </c>
+      <c r="M885" t="n">
+        <v>0</v>
+      </c>
+      <c r="N885" t="n">
+        <v>13</v>
+      </c>
+      <c r="O885" t="n">
+        <v>0</v>
+      </c>
+      <c r="P885" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q885" t="n">
+        <v>0</v>
+      </c>
+      <c r="R885" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
